--- a/Semestre 4/Aplicaciones Digitales/Testing/PC 'GAMER'.xlsx
+++ b/Semestre 4/Aplicaciones Digitales/Testing/PC 'GAMER'.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$F$18</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>LINK</t>
   </si>
@@ -54,6 +54,43 @@
 * Item dimensions L x W x H ‎23 x 12 x 4.2 Centimetrer</t>
   </si>
   <si>
+    <t>https://a.co/d/g4A9xMN</t>
+  </si>
+  <si>
+    <t>RTX 4060</t>
+  </si>
+  <si>
+    <t>MSI Gaming GeForce RTX 4060 8GB GDRR6 128-Bit HDMI/DP Nvlink TORX Fan 4.0 Ada Lovelace Architecture Graphics Card (RTX 4060 Ventus 2X Black 8G OC)</t>
+  </si>
+  <si>
+    <t>https://a.co/d/iED71iS</t>
+  </si>
+  <si>
+    <t>ASUS DUAL-RTX4060-O8G</t>
+  </si>
+  <si>
+    <t>https://a.co/d/4xIXjf9</t>
+  </si>
+  <si>
+    <t>Gigabyte RTX 4060</t>
+  </si>
+  <si>
+    <t>Gigabyte GeForce RTX 4060 Eagle OC 8G Graphics Card, 3X WINDFORCE Fans, 8GB 128-bit GDDR6, GV-N4060EAGLE OC-8GD Video Card</t>
+  </si>
+  <si>
+    <t>Graphics coprocessor NVIDIA GeForce RTX 4060
+Brand GIGABYTE
+Graphics RAM size 8 GB
+Video output interface DisplayPort, HDMI
+Graphics processor manufacturer NVIDIA
+Powered by NVIDIA DLSS 3, ultra-efficient Ada Lovelace architechture, and full ray tracing
+4th Generation Tensor Cores: Up to 4x performance with DLSS 3
+3rd Generation RT Cores: Up to 2x ray tracing performance
+Powered by GeForce RTX 4060
+Integrated with 8GB GDDR6 128-bit memory interface
+WINDFORCE Cooling System, Dual BIOS, Protection metal back plate</t>
+  </si>
+  <si>
     <t>https://a.co/d/akmHCu7</t>
   </si>
   <si>
@@ -61,6 +98,42 @@
   </si>
   <si>
     <t>AMD Ryzen 7 5800X 8-core, 16-thread unlocked desktop processor without cooler</t>
+  </si>
+  <si>
+    <t>https://a.co/d/5GV5TGq</t>
+  </si>
+  <si>
+    <t>Ryzen 5 7600</t>
+  </si>
+  <si>
+    <t>AMD Ryzen™ 5 7600 6-Core, 12-Thread Unlocked Desktop Processor</t>
+  </si>
+  <si>
+    <t>6 Cores and 12 processing threads, based on AMD "Zen 4" architecture
+5.2 GHz Max Boost, unlocked for overclocking, 38 MB cache, DDR5 support
+For the state-of-the-art Socket AM5 platform, can support PCIe 5.0 on select 600 Series motherboards
+AMD Wraith Stealth cooler included</t>
+  </si>
+  <si>
+    <t>https://a.co/d/aYl1UGo</t>
+  </si>
+  <si>
+    <t>Ryzen 5 7600x</t>
+  </si>
+  <si>
+    <t>AMD Ryzen™ 5 7600X 6-Core, 12-Thread Unlocked Desktop Processor, Cooler not Included</t>
+  </si>
+  <si>
+    <t>Brand AMD
+CPU manufacturer AMD
+CPU model AMD Ryzen 7
+CPU speed 5.3
+CPU socket AM5
+Pure gaming performance with smooth 100+ FPS in the world's most popular games
+6 Cores and 12 processing threads, based on AMD "Zen 4" architecture
+5.3 GHz Max Boost, unlocked for overclocking, 38 MB cache, DDR5-5200 support
+For the state-of-the-art Socket AM5 platform, can support PCIe 5.0 on select 600 Series motherboards
+Cooler not included</t>
   </si>
   <si>
     <t>https://a.co/d/8Q4Qmb6</t>
@@ -84,6 +157,48 @@
 Memory storage capacity 64 GB</t>
   </si>
   <si>
+    <t>https://a.co/d/cf88ZZl</t>
+  </si>
+  <si>
+    <t>MSI PRO B650</t>
+  </si>
+  <si>
+    <t>MSI PRO B650-P WiFi ProSeries Motherboard (AMD AM5, ATX, DDR5, PCIe 4.0, M.2, SATA 6Gb/s, USB 3.2 Gen 2, HDMI/DP, Wi-Fi 6E, AMD Ryzen 7000 Series Desktop Processors)</t>
+  </si>
+  <si>
+    <t>Brand MSI
+CPU socket Socket AM5
+Compatible devices Personal Computer
+RAM memory technology DDR5
+Compatible processors AMD 1st Gerenration Ryzen
+Chipset type AMD B650
+Memory clock speed 6400 MHz
+Platform Windows 10
+Model name PRO
+CPU model AMD Ryzen 7</t>
+  </si>
+  <si>
+    <t>https://a.co/d/coSGcvB</t>
+  </si>
+  <si>
+    <t>ASUS Prime A620</t>
+  </si>
+  <si>
+    <t>ASUS Prime A620-PLUS WiFi Socket AM5 (LGA 1718) Ryzen 7000 Gaming Motherboard(DDR5, PCIe 4.0, Dual M.2 Slots, DisplayPort/HDMI™, Wi-Fi 5,Rear &amp; Front USB 3.2 Gen 1 Type-C®, SATA 6 Gbps)</t>
+  </si>
+  <si>
+    <t>Brand Asus
+CPU socket Socket AM5
+Compatible devices Personal Computer
+RAM memory technology DDR5
+Chipset type AMD A620
+Platform Windows 10
+Model name PRIME A620-PLUS WIFI
+Memory storage capacity 1 GB
+RAM memory maximum size 1 GB
+Graphics card interface PCI, PCI Express</t>
+  </si>
+  <si>
     <t>https://a.co/d/0QdUauM</t>
   </si>
   <si>
@@ -146,6 +261,27 @@
 Power supply design Non-Modular</t>
   </si>
   <si>
+    <t>https://a.co/d/7FgcAfm</t>
+  </si>
+  <si>
+    <t>600W Gold</t>
+  </si>
+  <si>
+    <t>Thermaltake Toughpower GX2 80+ Gold 600W SLI/Crossfire Ready Continuous Power ATX 12V V2.4/EPS V2.92 Non Modular Power Supply 5 Year Warranty PS-TPD-0600NNFAGU-2</t>
+  </si>
+  <si>
+    <t>Model name toughpower gx2
+Brand Thermaltake
+Compatible devices Personal Computer
+Connector type SATA
+Output wattage 600
+Form factor ATX
+Wattage 600 watts
+Cooling method Air
+Item dimensions L x W x H 23.9 x 20.1 x 12.2 Centimetres
+Item weight 4.43 Pounds</t>
+  </si>
+  <si>
     <t>https://a.co/d/ankMUKR</t>
   </si>
   <si>
@@ -170,6 +306,9 @@
     <t>TOTAL (No Tax):</t>
   </si>
   <si>
+    <t>o</t>
+  </si>
+  <si>
     <t>TOTAL con Tax:</t>
   </si>
   <si>
@@ -177,6 +316,15 @@
   </si>
   <si>
     <t>20% ?</t>
+  </si>
+  <si>
+    <t>OPCIONES EXTRAS</t>
+  </si>
+  <si>
+    <t>https://a.co/d/6fslSrq</t>
+  </si>
+  <si>
+    <t>WD_BLACK 2TB SN770 NVMe Internal Gaming SSD Solid State Drive - Gen4 PCIe, M.2 2280, Up to 5,150 MB/s - WDS200T3X0E</t>
   </si>
 </sst>
 </file>
@@ -189,7 +337,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +362,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -350,7 +505,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,7 +520,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,134 +897,134 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,6 +1035,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -849,14 +1049,101 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1391,194 +1678,376 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:F14"/>
+  <dimension ref="B3:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5714285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5714285714286" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.5714285714286" style="4" customWidth="1"/>
+    <col min="6" max="6" width="52.8571428571429" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="225" spans="2:6">
-      <c r="B4" s="6" t="s">
+    <row r="4" ht="135" spans="2:6">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>489.99</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="45" spans="2:6">
-      <c r="B5" s="6" t="s">
+    <row r="5" ht="75" spans="2:6">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="12">
+        <v>400</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="12">
+        <v>400</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" ht="210" spans="2:6">
+      <c r="B7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="16">
+        <v>410</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="45" spans="2:6">
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8">
         <v>278.98</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" ht="180" spans="2:6">
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="D8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" ht="105" spans="2:6">
+      <c r="B9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="19">
+        <v>350</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="210" spans="2:6">
+      <c r="B10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="23">
+        <v>329</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="150" spans="2:6">
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8">
         <v>219.99</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="135" spans="2:6">
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="D11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="150" spans="2:6">
+      <c r="B12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="19">
+        <v>250</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="150" spans="2:6">
+      <c r="B13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="23">
+        <v>190</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" ht="135" spans="2:6">
+      <c r="B14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="19">
         <v>114.99</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" ht="180" spans="2:6">
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="D14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="165" spans="2:6">
+      <c r="B15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="19">
         <v>126.19</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="180" spans="2:6">
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="D15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" ht="150" spans="2:6">
+      <c r="B16" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="29">
         <v>94.99</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" ht="165" spans="2:6">
-      <c r="B10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="D16" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" ht="150" spans="2:6">
+      <c r="B17" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="33">
+        <v>90</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" ht="150" spans="2:6">
+      <c r="B18" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="33">
         <v>79.99</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2">
-        <f>SUM(C4+C5+C6+C7+C8+C9+C10)</f>
-        <v>1405.12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2">
-        <f>C12*1.12</f>
-        <v>1573.7344</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2">
-        <f>C13*0.8</f>
-        <v>1258.98752</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>35</v>
+      <c r="D18" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2">
+        <f>SUM(C7+C9+C14+C15+C17+C18+C12)</f>
+        <v>1421.17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="4">
+        <f>SUM(C6+C10+C12+C14+C15+C16+C18-50)</f>
+        <v>1345.16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2">
+        <f>C20*1.12</f>
+        <v>1591.7104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="2">
+        <f>C21*0.8</f>
+        <v>1273.36832</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" ht="90" spans="2:4">
+      <c r="B26" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="2">
+        <v>149.97</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B24:F24"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="https://a.co/d/dLRgVDp"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://a.co/d/akmHCu7"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://a.co/d/8Q4Qmb6"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://a.co/d/0QdUauM"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://a.co/d/62SAPMw"/>
-    <hyperlink ref="B9" r:id="rId6" display="https://a.co/d/9eOmJ1j"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://a.co/d/ankMUKR"/>
+    <hyperlink ref="B8" r:id="rId2" display="https://a.co/d/akmHCu7"/>
+    <hyperlink ref="B11" r:id="rId3" display="https://a.co/d/8Q4Qmb6"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://a.co/d/0QdUauM" tooltip="https://a.co/d/0QdUauM"/>
+    <hyperlink ref="B15" r:id="rId5" display="https://a.co/d/62SAPMw"/>
+    <hyperlink ref="B16" r:id="rId6" display="https://a.co/d/9eOmJ1j"/>
+    <hyperlink ref="B18" r:id="rId7" display="https://a.co/d/ankMUKR" tooltip="https://a.co/d/ankMUKR"/>
+    <hyperlink ref="B26" r:id="rId8" display="https://a.co/d/6fslSrq"/>
+    <hyperlink ref="B5" r:id="rId9" display="https://a.co/d/g4A9xMN"/>
+    <hyperlink ref="B12" r:id="rId10" display="https://a.co/d/cf88ZZl"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
